--- a/EmailBlast/Excel/Template/NewCountry.xlsx
+++ b/EmailBlast/Excel/Template/NewCountry.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF3B14-1707-4187-A33B-D2F5900C7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5EE6F-8BC7-4E1B-A672-E024CA9001B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="11865" yWindow="60" windowWidth="10200" windowHeight="7875" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
+    <sheet name="Mp3" sheetId="12" r:id="rId1"/>
     <sheet name="Wav" sheetId="2" r:id="rId2"/>
     <sheet name="Attachment" sheetId="3" r:id="rId3"/>
     <sheet name="Both" sheetId="4" r:id="rId4"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>SubmitHub</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -448,16 +451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D041F03A-FE4D-4022-809E-4257B637A87A}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3718F9ED-44A3-4FF6-B346-97B8005E5A5C}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,16 +488,21 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B53813-76F7-4E64-937E-CDEC69F32CA0}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
@@ -502,7 +510,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,19 +544,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -560,15 +571,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6720E4D-9D5E-4E29-A3B7-B145B88A400E}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,6 +606,12 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -604,15 +621,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D386E-CBEC-4FB1-9297-C88EC9A93379}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,6 +656,12 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -648,10 +671,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D679B3A-6FF4-4113-9593-1BFF859C82FF}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +682,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,6 +712,9 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -698,15 +724,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988ACEB1-FA3D-4126-B542-EE42033E74EA}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,6 +759,12 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -742,38 +774,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4ED0D-F936-4DD5-9947-764A260F3F05}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -784,15 +825,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A6A3AF-62F5-4C78-98DC-37EEC5A78B58}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,8 +864,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
   </sheetData>
@@ -834,15 +878,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF7842E-30DE-4CF5-9B0E-49CE2A73BCB7}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,8 +914,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
@@ -882,10 +932,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +943,7 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,12 +974,15 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="I3" s="3"/>
